--- a/biology/Botanique/Nothotsuga_longibracteata/Nothotsuga_longibracteata.xlsx
+++ b/biology/Botanique/Nothotsuga_longibracteata/Nothotsuga_longibracteata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nothotsuga est un genre de conifères de la famille des Pinaceae, très proche des genres Tsuga et Keteleeria. Le genre ne compte qu'une seule espèce, Nothotsuga longibracteata, appelé par les Américains Bristlecone Hemlock, que l'on pourrait traduire par pruche à cônes hirsutes. Cette appellation ne doit pas induire de confusion avec le pin Bristlecone.
 Ce conifère sempervirent se rencontre au sud-est de la Chine dans les provinces du Fujian,Guangdong,Guizhou et Hunan jusqu'à 1900 m d'altitude. Il peut mesurer jusqu'à 30 mètres de haut.
